--- a/biology/Zoologie/Geai_longup/Geai_longup.xlsx
+++ b/biology/Zoologie/Geai_longup/Geai_longup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platylophus galericulatus
 Le Geai longup (Platylophus galericulatus) est une espèce de passereaux appartenant à la famille des Corvidae, seule au sein du genre Platylophus. Il vit en Asie du Sud-Est : péninsule malaise, Sumatra, Java et Borneo.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De taille moyenne au sein des Corvidés (31-33 cm pour 78-114g), le Geai longup est un oiseau presque entièrement sombre, à l'exception d'un croissant blanc sur le côté du cou et d'une marque blanche interrompue à l'arrière de l'œil. La sous-espèce nominale est noire, tandis que ssp coronatus est couleur rouille et ssp malaccensis gris foncé à teinte olivâtre. Le Geai longup doit son nom à sa longue huppe, légèrement évasée et penchant souvent vers l'avant. Les vibrisses nasales sont vestigiales, mais celles de la commissure du bec sont bien marquées.
 Les deux sexes sont identiques. Le juvénile se distingue par un plumage brun roux, avec une tête orange-brun arborant une courte huppe, le dessous légèrement moucheté et des marques crème à l'extrémité des couvertures et des tertiaires. L'immature est plus proche de l'adulte, mais conserve un dessous légèrement pommelé ou barré de pâle.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve dans les forêts de faible altitude, aussi bien primaires que secondaires.
 </t>
@@ -575,7 +591,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son comportement est mal connu. Il vit en couple ou en petits groupes familiaux dans le feuillage, dans les étages inférieur et médian de la canopée. Il se nourrit essentiellement d'invertébrés.
 </t>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par quatre sous-espèces :
 Platylophus galericulatus malaccensis (Cabanis, 1866) dans la péninsule malaise ;
